--- a/xlsx/電腦_intext.xlsx
+++ b/xlsx/電腦_intext.xlsx
@@ -29,7 +29,7 @@
     <t>計算機 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_電腦</t>
+    <t>体育运动_体育运动_技术_電腦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
